--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2350747.113248187</v>
+        <v>2370797.965497623</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7468483.559539751</v>
+        <v>7468483.559539755</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4652905.835522319</v>
+        <v>4652905.835522321</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8145420.530415637</v>
+        <v>8145420.530415638</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>322.2513765778948</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.9667367283143</v>
       </c>
       <c r="G11" t="n">
         <v>411.8290383841796</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I11" t="n">
-        <v>76.55610382424425</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>196.8617380866793</v>
       </c>
       <c r="T13" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>43.37628358662482</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>156.9775903646274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>234.5132223755209</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.55610382424425</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.2518046759643</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1821,10 +1821,10 @@
         <v>221.2879033684809</v>
       </c>
       <c r="U16" t="n">
-        <v>264.2094599295128</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>11.52841228168865</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>340.7019504223107</v>
       </c>
       <c r="G17" t="n">
         <v>411.8290383841796</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>161.3010705226237</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T19" t="n">
         <v>221.2879033684809</v>
       </c>
       <c r="U19" t="n">
-        <v>207.5603382411026</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>279.4616040996904</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>282.502548116547</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U20" t="n">
-        <v>156.8428616151617</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2216,7 +2216,7 @@
         <v>192.6732950772712</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8191062330279</v>
+        <v>225.8191062330275</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>129.9747773923864</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T22" t="n">
         <v>221.2879033684809</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>106.5102947445284</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I23" t="n">
-        <v>76.55610382424425</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>207.8897316183737</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0677569773602</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>196.8617380866793</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>202.3433572245926</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.10953963742992</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I26" t="n">
-        <v>76.55610382424425</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>207.8897316183737</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0677569773601</v>
+        <v>251.0677569773602</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>12.82445079467932</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4327975146757</v>
+        <v>108.1692094238224</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I29" t="n">
-        <v>76.55610382424425</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>207.8897316183737</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0677569773602</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>73.0144917995402</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>166.9307930341956</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I32" t="n">
-        <v>76.55610382424425</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>207.8897316183737</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0677569773602</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U34" t="n">
-        <v>10.27780077107987</v>
+        <v>271.3344619664552</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>322.4071961327706</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>156.8428616151626</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T37" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>153.3101366409017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>12.50878407506318</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>174.3038115076349</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,10 +3520,10 @@
         <v>411.8290383841796</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>180.0858654485749</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I40" t="n">
-        <v>58.26402967606141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S40" t="n">
         <v>196.8617380866793</v>
@@ -3717,16 +3717,16 @@
         <v>221.2879033684809</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>28.13798435981461</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.4785583369148</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>156.8428616151617</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2340376195573</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>271.6234226834889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>198.4367049543649</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>411.8290383841796</v>
       </c>
       <c r="H44" t="n">
-        <v>303.8997808908692</v>
+        <v>80.28675779091779</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>42.0317782359671</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4112,7 +4112,7 @@
         <v>192.6732950772712</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8191062330282</v>
+        <v>225.8191062330277</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T46" t="n">
         <v>221.2879033684809</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>187.899650053191</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.8371603966348</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>870.2818102935669</v>
+        <v>1443.344364826953</v>
       </c>
       <c r="C11" t="n">
-        <v>870.2818102935669</v>
+        <v>1074.381847886541</v>
       </c>
       <c r="D11" t="n">
-        <v>870.2818102935669</v>
+        <v>1074.381847886541</v>
       </c>
       <c r="E11" t="n">
-        <v>544.7753693057944</v>
+        <v>1074.381847886541</v>
       </c>
       <c r="F11" t="n">
-        <v>544.7753693057944</v>
+        <v>774.4154471508701</v>
       </c>
       <c r="G11" t="n">
-        <v>128.7864416450069</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="H11" t="n">
-        <v>128.7864416450069</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I11" t="n">
         <v>51.45704384274001</v>
@@ -5044,10 +5044,10 @@
         <v>331.5048602814481</v>
       </c>
       <c r="K11" t="n">
-        <v>551.0647880179043</v>
+        <v>551.0647880179044</v>
       </c>
       <c r="L11" t="n">
-        <v>860.3500550497935</v>
+        <v>860.3500550497936</v>
       </c>
       <c r="M11" t="n">
         <v>1236.158944957898</v>
@@ -5059,34 +5059,34 @@
         <v>1974.291826878447</v>
       </c>
       <c r="P11" t="n">
-        <v>2239.89821546449</v>
+        <v>2239.898215464491</v>
       </c>
       <c r="Q11" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R11" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S11" t="n">
-        <v>2441.677292501044</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T11" t="n">
-        <v>2231.687664603697</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U11" t="n">
-        <v>1978.083869677071</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V11" t="n">
-        <v>1647.0209823335</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="W11" t="n">
-        <v>1647.0209823335</v>
+        <v>2220.083536866886</v>
       </c>
       <c r="X11" t="n">
-        <v>1647.0209823335</v>
+        <v>2220.083536866886</v>
       </c>
       <c r="Y11" t="n">
-        <v>1256.881650357689</v>
+        <v>1829.944204891075</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J12" t="n">
-        <v>224.5582251110244</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K12" t="n">
-        <v>647.036558163833</v>
+        <v>505.5877379637894</v>
       </c>
       <c r="L12" t="n">
-        <v>909.3832684542961</v>
+        <v>767.9344482542525</v>
       </c>
       <c r="M12" t="n">
-        <v>1234.886373440623</v>
+        <v>1404.71536580816</v>
       </c>
       <c r="N12" t="n">
-        <v>1583.413221966968</v>
+        <v>1753.242214334505</v>
       </c>
       <c r="O12" t="n">
-        <v>1880.027402923162</v>
+        <v>2049.856395290699</v>
       </c>
       <c r="P12" t="n">
         <v>2268.582359232883</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.45704384274001</v>
+        <v>498.3358725582981</v>
       </c>
       <c r="C13" t="n">
-        <v>51.45704384274001</v>
+        <v>498.3358725582981</v>
       </c>
       <c r="D13" t="n">
-        <v>51.45704384274001</v>
+        <v>348.2192331459623</v>
       </c>
       <c r="E13" t="n">
-        <v>51.45704384274001</v>
+        <v>348.2192331459623</v>
       </c>
       <c r="F13" t="n">
-        <v>51.45704384274001</v>
+        <v>201.329285648052</v>
       </c>
       <c r="G13" t="n">
-        <v>51.45704384274001</v>
+        <v>201.329285648052</v>
       </c>
       <c r="H13" t="n">
         <v>51.45704384274001</v>
@@ -5199,16 +5199,16 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J13" t="n">
-        <v>68.09327731914513</v>
+        <v>68.09327731914514</v>
       </c>
       <c r="K13" t="n">
         <v>225.2685560834543</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9252339502279</v>
+        <v>481.9252339502281</v>
       </c>
       <c r="M13" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336196</v>
       </c>
       <c r="N13" t="n">
         <v>1042.673563376666</v>
@@ -5223,28 +5223,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R13" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S13" t="n">
-        <v>1205.634610289775</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T13" t="n">
-        <v>982.1114755741376</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="U13" t="n">
-        <v>982.1114755741376</v>
+        <v>1024.82433952748</v>
       </c>
       <c r="V13" t="n">
-        <v>727.4269873682507</v>
+        <v>770.139851321593</v>
       </c>
       <c r="W13" t="n">
-        <v>438.0098173312901</v>
+        <v>726.3254234563154</v>
       </c>
       <c r="X13" t="n">
-        <v>210.0202664332728</v>
+        <v>498.3358725582981</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.45704384274001</v>
+        <v>498.3358725582981</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1710.512043634058</v>
+        <v>878.431876293135</v>
       </c>
       <c r="C14" t="n">
-        <v>1341.549526693646</v>
+        <v>878.431876293135</v>
       </c>
       <c r="D14" t="n">
-        <v>1341.549526693646</v>
+        <v>878.431876293135</v>
       </c>
       <c r="E14" t="n">
-        <v>955.7612740954019</v>
+        <v>878.431876293135</v>
       </c>
       <c r="F14" t="n">
-        <v>544.7753693057944</v>
+        <v>467.4459715035275</v>
       </c>
       <c r="G14" t="n">
-        <v>128.786441645007</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H14" t="n">
-        <v>128.786441645007</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I14" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J14" t="n">
         <v>331.5048602814481</v>
       </c>
       <c r="K14" t="n">
-        <v>551.0647880179043</v>
+        <v>551.0647880179044</v>
       </c>
       <c r="L14" t="n">
-        <v>860.3500550497935</v>
+        <v>860.3500550497936</v>
       </c>
       <c r="M14" t="n">
         <v>1236.158944957898</v>
@@ -5296,34 +5296,34 @@
         <v>1974.291826878447</v>
       </c>
       <c r="P14" t="n">
-        <v>2239.89821546449</v>
+        <v>2239.898215464491</v>
       </c>
       <c r="Q14" t="n">
-        <v>2505.199913394205</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R14" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S14" t="n">
-        <v>2470.577641959259</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="T14" t="n">
-        <v>2470.577641959259</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U14" t="n">
-        <v>2470.577641959259</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="V14" t="n">
-        <v>2470.577641959259</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="W14" t="n">
-        <v>2470.577641959259</v>
+        <v>1878.919009333583</v>
       </c>
       <c r="X14" t="n">
-        <v>2097.11188369818</v>
+        <v>1505.453251072503</v>
       </c>
       <c r="Y14" t="n">
-        <v>2097.11188369818</v>
+        <v>1115.313919096692</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>938.3699096944696</v>
+        <v>938.3699096944688</v>
       </c>
       <c r="C15" t="n">
-        <v>763.9168804133426</v>
+        <v>763.9168804133418</v>
       </c>
       <c r="D15" t="n">
-        <v>614.9824707520913</v>
+        <v>614.9824707520906</v>
       </c>
       <c r="E15" t="n">
-        <v>455.7450157466358</v>
+        <v>455.7450157466351</v>
       </c>
       <c r="F15" t="n">
-        <v>309.2104577735208</v>
+        <v>309.2104577735201</v>
       </c>
       <c r="G15" t="n">
-        <v>172.3569989104735</v>
+        <v>172.3569989104731</v>
       </c>
       <c r="H15" t="n">
-        <v>77.11927188230902</v>
+        <v>77.11927188230857</v>
       </c>
       <c r="I15" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J15" t="n">
         <v>224.5582251110245</v>
       </c>
       <c r="K15" t="n">
-        <v>385.2159735213802</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L15" t="n">
-        <v>647.5626838118433</v>
+        <v>909.3832684542963</v>
       </c>
       <c r="M15" t="n">
-        <v>973.0657887981704</v>
+        <v>1234.886373440623</v>
       </c>
       <c r="N15" t="n">
-        <v>1609.846706352078</v>
+        <v>1583.413221966968</v>
       </c>
       <c r="O15" t="n">
-        <v>2246.627623905986</v>
+        <v>1880.027402923163</v>
       </c>
       <c r="P15" t="n">
-        <v>2465.35358784817</v>
+        <v>2268.582359232883</v>
       </c>
       <c r="Q15" t="n">
-        <v>2561.646905893797</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="R15" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.306107928099</v>
+        <v>2434.306107928098</v>
       </c>
       <c r="T15" t="n">
-        <v>2239.686617951058</v>
+        <v>2239.686617951057</v>
       </c>
       <c r="U15" t="n">
-        <v>2011.586510644969</v>
+        <v>2011.586510644968</v>
       </c>
       <c r="V15" t="n">
-        <v>1776.434402413226</v>
+        <v>1776.434402413225</v>
       </c>
       <c r="W15" t="n">
-        <v>1522.197045685025</v>
+        <v>1522.197045685024</v>
       </c>
       <c r="X15" t="n">
-        <v>1314.345545479492</v>
+        <v>1314.345545479491</v>
       </c>
       <c r="Y15" t="n">
-        <v>1106.585246714538</v>
+        <v>1106.585246714537</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="C16" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="D16" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="E16" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="F16" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="G16" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H16" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I16" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J16" t="n">
         <v>68.09327731914514</v>
@@ -5442,7 +5442,7 @@
         <v>225.2685560834543</v>
       </c>
       <c r="L16" t="n">
-        <v>481.925233950228</v>
+        <v>481.9252339502281</v>
       </c>
       <c r="M16" t="n">
         <v>762.9228379336196</v>
@@ -5469,19 +5469,19 @@
         <v>1090.426495336648</v>
       </c>
       <c r="U16" t="n">
-        <v>823.5482529836048</v>
+        <v>801.3012048118427</v>
       </c>
       <c r="V16" t="n">
-        <v>568.863764777718</v>
+        <v>789.6563439212481</v>
       </c>
       <c r="W16" t="n">
-        <v>279.4465947407573</v>
+        <v>500.2391738842875</v>
       </c>
       <c r="X16" t="n">
-        <v>51.45704384274002</v>
+        <v>272.2496229862701</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1633.182645831791</v>
+        <v>1555.643306973483</v>
       </c>
       <c r="C17" t="n">
-        <v>1264.220128891379</v>
+        <v>1555.643306973483</v>
       </c>
       <c r="D17" t="n">
-        <v>1264.220128891379</v>
+        <v>1197.377608366732</v>
       </c>
       <c r="E17" t="n">
-        <v>878.431876293135</v>
+        <v>811.5893557684878</v>
       </c>
       <c r="F17" t="n">
         <v>467.4459715035275</v>
       </c>
       <c r="G17" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H17" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I17" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J17" t="n">
-        <v>300.3873833501243</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K17" t="n">
-        <v>519.9473110865806</v>
+        <v>665.079896165633</v>
       </c>
       <c r="L17" t="n">
-        <v>829.2325781184697</v>
+        <v>974.3651631975222</v>
       </c>
       <c r="M17" t="n">
-        <v>1205.041468026575</v>
+        <v>1350.174053105627</v>
       </c>
       <c r="N17" t="n">
-        <v>1591.545147048324</v>
+        <v>1736.677732127376</v>
       </c>
       <c r="O17" t="n">
-        <v>1943.174349947123</v>
+        <v>2088.306935026176</v>
       </c>
       <c r="P17" t="n">
-        <v>2208.780738533167</v>
+        <v>2353.913323612219</v>
       </c>
       <c r="Q17" t="n">
-        <v>2570.259169068458</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R17" t="n">
         <v>2572.852192137001</v>
@@ -5548,19 +5548,19 @@
         <v>2572.852192137001</v>
       </c>
       <c r="U17" t="n">
-        <v>2572.852192137001</v>
+        <v>2319.248397210374</v>
       </c>
       <c r="V17" t="n">
-        <v>2572.852192137001</v>
+        <v>2319.248397210374</v>
       </c>
       <c r="W17" t="n">
-        <v>2572.852192137001</v>
+        <v>2319.248397210374</v>
       </c>
       <c r="X17" t="n">
-        <v>2409.921817871725</v>
+        <v>1945.782638949294</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.782485895913</v>
+        <v>1555.643306973483</v>
       </c>
     </row>
     <row r="18">
@@ -5576,31 +5576,31 @@
         <v>763.9168804133423</v>
       </c>
       <c r="D18" t="n">
-        <v>614.9824707520909</v>
+        <v>614.982470752091</v>
       </c>
       <c r="E18" t="n">
-        <v>455.7450157466353</v>
+        <v>455.7450157466355</v>
       </c>
       <c r="F18" t="n">
-        <v>309.2104577735204</v>
+        <v>309.2104577735205</v>
       </c>
       <c r="G18" t="n">
         <v>172.3569989104732</v>
       </c>
       <c r="H18" t="n">
-        <v>77.11927188230875</v>
+        <v>77.11927188230874</v>
       </c>
       <c r="I18" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J18" t="n">
         <v>224.5582251110245</v>
       </c>
       <c r="K18" t="n">
-        <v>647.036558163833</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L18" t="n">
-        <v>909.3832684542961</v>
+        <v>909.3832684542963</v>
       </c>
       <c r="M18" t="n">
         <v>1234.886373440623</v>
@@ -5609,13 +5609,13 @@
         <v>1583.413221966968</v>
       </c>
       <c r="O18" t="n">
-        <v>1880.027402923162</v>
+        <v>1880.027402923163</v>
       </c>
       <c r="P18" t="n">
-        <v>2268.582359232884</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q18" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R18" t="n">
         <v>2572.852192137001</v>
@@ -5624,7 +5624,7 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T18" t="n">
-        <v>2239.686617951058</v>
+        <v>2239.686617951057</v>
       </c>
       <c r="U18" t="n">
         <v>2011.586510644968</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.45704384274002</v>
+        <v>518.178562158352</v>
       </c>
       <c r="C19" t="n">
-        <v>51.45704384274002</v>
+        <v>349.2423792304451</v>
       </c>
       <c r="D19" t="n">
-        <v>51.45704384274002</v>
+        <v>349.2423792304451</v>
       </c>
       <c r="E19" t="n">
-        <v>51.45704384274002</v>
+        <v>201.329285648052</v>
       </c>
       <c r="F19" t="n">
-        <v>51.45704384274002</v>
+        <v>201.329285648052</v>
       </c>
       <c r="G19" t="n">
-        <v>51.45704384274002</v>
+        <v>201.329285648052</v>
       </c>
       <c r="H19" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I19" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J19" t="n">
         <v>68.09327731914514</v>
@@ -5679,7 +5679,7 @@
         <v>225.2685560834543</v>
       </c>
       <c r="L19" t="n">
-        <v>481.925233950228</v>
+        <v>481.9252339502281</v>
       </c>
       <c r="M19" t="n">
         <v>762.9228379336196</v>
@@ -5700,25 +5700,25 @@
         <v>1404.48485078137</v>
       </c>
       <c r="S19" t="n">
-        <v>1404.48485078137</v>
+        <v>1205.634610289775</v>
       </c>
       <c r="T19" t="n">
-        <v>1180.961716065733</v>
+        <v>982.1114755741376</v>
       </c>
       <c r="U19" t="n">
-        <v>971.3048087514878</v>
+        <v>982.1114755741376</v>
       </c>
       <c r="V19" t="n">
-        <v>971.3048087514878</v>
+        <v>982.1114755741376</v>
       </c>
       <c r="W19" t="n">
-        <v>681.8876387145272</v>
+        <v>699.8270269885917</v>
       </c>
       <c r="X19" t="n">
-        <v>453.8980878165098</v>
+        <v>699.8270269885917</v>
       </c>
       <c r="Y19" t="n">
-        <v>233.1055086729797</v>
+        <v>699.8270269885917</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1264.220128891379</v>
+        <v>1241.802909790413</v>
       </c>
       <c r="C20" t="n">
-        <v>1264.220128891379</v>
+        <v>872.8403928500015</v>
       </c>
       <c r="D20" t="n">
-        <v>1264.220128891379</v>
+        <v>514.5746942432511</v>
       </c>
       <c r="E20" t="n">
-        <v>878.431876293135</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="F20" t="n">
-        <v>467.4459715035275</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="G20" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="H20" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="I20" t="n">
         <v>51.45704384274001</v>
@@ -5755,22 +5755,22 @@
         <v>331.5048602814481</v>
       </c>
       <c r="K20" t="n">
-        <v>551.0647880179043</v>
+        <v>665.079896165633</v>
       </c>
       <c r="L20" t="n">
-        <v>860.3500550497935</v>
+        <v>974.3651631975222</v>
       </c>
       <c r="M20" t="n">
-        <v>1236.158944957898</v>
+        <v>1350.174053105627</v>
       </c>
       <c r="N20" t="n">
-        <v>1622.662623979647</v>
+        <v>1736.677732127376</v>
       </c>
       <c r="O20" t="n">
-        <v>1974.291826878447</v>
+        <v>2088.306935026176</v>
       </c>
       <c r="P20" t="n">
-        <v>2239.89821546449</v>
+        <v>2353.913323612219</v>
       </c>
       <c r="Q20" t="n">
         <v>2505.199913394204</v>
@@ -5779,25 +5779,25 @@
         <v>2572.852192137001</v>
       </c>
       <c r="S20" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="T20" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U20" t="n">
-        <v>2414.425059192393</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="V20" t="n">
-        <v>2414.425059192393</v>
+        <v>1900.624777260126</v>
       </c>
       <c r="W20" t="n">
-        <v>2414.425059192393</v>
+        <v>1900.624777260126</v>
       </c>
       <c r="X20" t="n">
-        <v>2040.959300931313</v>
+        <v>1527.159018999047</v>
       </c>
       <c r="Y20" t="n">
-        <v>1650.819968955501</v>
+        <v>1527.159018999047</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>938.3699096944688</v>
+        <v>938.3699096944697</v>
       </c>
       <c r="C21" t="n">
-        <v>763.9168804133418</v>
+        <v>763.9168804133426</v>
       </c>
       <c r="D21" t="n">
-        <v>614.9824707520906</v>
+        <v>614.9824707520911</v>
       </c>
       <c r="E21" t="n">
-        <v>455.7450157466351</v>
+        <v>455.7450157466355</v>
       </c>
       <c r="F21" t="n">
-        <v>309.2104577735201</v>
+        <v>309.2104577735205</v>
       </c>
       <c r="G21" t="n">
-        <v>172.3569989104731</v>
+        <v>172.3569989104732</v>
       </c>
       <c r="H21" t="n">
-        <v>77.11927188230857</v>
+        <v>77.11927188230874</v>
       </c>
       <c r="I21" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J21" t="n">
-        <v>224.5582251110244</v>
+        <v>99.72810012401972</v>
       </c>
       <c r="K21" t="n">
-        <v>647.036558163833</v>
+        <v>260.3858485343756</v>
       </c>
       <c r="L21" t="n">
-        <v>1079.212260821833</v>
+        <v>889.8645006752632</v>
       </c>
       <c r="M21" t="n">
-        <v>1404.71536580816</v>
+        <v>1282.328159890777</v>
       </c>
       <c r="N21" t="n">
-        <v>1753.242214334505</v>
+        <v>1630.855008417122</v>
       </c>
       <c r="O21" t="n">
-        <v>2049.856395290699</v>
+        <v>1927.469189373317</v>
       </c>
       <c r="P21" t="n">
-        <v>2268.582359232883</v>
+        <v>2461.473294269038</v>
       </c>
       <c r="Q21" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R21" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.306107928098</v>
+        <v>2434.306107928099</v>
       </c>
       <c r="T21" t="n">
         <v>2239.686617951057</v>
       </c>
       <c r="U21" t="n">
-        <v>2011.586510644968</v>
+        <v>2011.586510644969</v>
       </c>
       <c r="V21" t="n">
-        <v>1776.434402413225</v>
+        <v>1776.434402413226</v>
       </c>
       <c r="W21" t="n">
         <v>1522.197045685024</v>
       </c>
       <c r="X21" t="n">
-        <v>1314.345545479491</v>
+        <v>1314.345545479492</v>
       </c>
       <c r="Y21" t="n">
-        <v>1106.585246714537</v>
+        <v>1106.585246714538</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>348.4636307529861</v>
+        <v>351.6808807023504</v>
       </c>
       <c r="C22" t="n">
-        <v>348.4636307529861</v>
+        <v>182.7446977744434</v>
       </c>
       <c r="D22" t="n">
-        <v>198.3469913406504</v>
+        <v>182.7446977744434</v>
       </c>
       <c r="E22" t="n">
-        <v>198.3469913406504</v>
+        <v>182.7446977744434</v>
       </c>
       <c r="F22" t="n">
-        <v>51.45704384274001</v>
+        <v>182.7446977744434</v>
       </c>
       <c r="G22" t="n">
         <v>51.45704384274001</v>
@@ -5910,16 +5910,16 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J22" t="n">
-        <v>68.09327731914513</v>
+        <v>68.09327731914514</v>
       </c>
       <c r="K22" t="n">
         <v>225.2685560834543</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9252339502279</v>
+        <v>481.9252339502281</v>
       </c>
       <c r="M22" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336196</v>
       </c>
       <c r="N22" t="n">
         <v>1042.673563376666</v>
@@ -5934,28 +5934,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R22" t="n">
-        <v>1512.799870543881</v>
+        <v>1404.48485078137</v>
       </c>
       <c r="S22" t="n">
-        <v>1512.799870543881</v>
+        <v>1205.634610289775</v>
       </c>
       <c r="T22" t="n">
-        <v>1289.276735828243</v>
+        <v>982.1114755741376</v>
       </c>
       <c r="U22" t="n">
-        <v>1000.151445303438</v>
+        <v>982.1114755741376</v>
       </c>
       <c r="V22" t="n">
-        <v>745.4669570975511</v>
+        <v>982.1114755741376</v>
       </c>
       <c r="W22" t="n">
-        <v>456.0497870605905</v>
+        <v>982.1114755741376</v>
       </c>
       <c r="X22" t="n">
-        <v>348.4636307529861</v>
+        <v>754.1219246761202</v>
       </c>
       <c r="Y22" t="n">
-        <v>348.4636307529861</v>
+        <v>533.3293455325901</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2421.29211219684</v>
+        <v>2421.292112196839</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.329595256429</v>
+        <v>2052.329595256428</v>
       </c>
       <c r="D23" t="n">
         <v>1694.063896649678</v>
@@ -5977,10 +5977,10 @@
         <v>1308.275644051434</v>
       </c>
       <c r="F23" t="n">
-        <v>897.2897392618263</v>
+        <v>897.2897392618261</v>
       </c>
       <c r="G23" t="n">
-        <v>481.300811601039</v>
+        <v>481.3008116010387</v>
       </c>
       <c r="H23" t="n">
         <v>174.3313359536963</v>
@@ -5992,16 +5992,16 @@
         <v>377.0497545901375</v>
       </c>
       <c r="K23" t="n">
-        <v>917.5136407720469</v>
+        <v>917.513640772047</v>
       </c>
       <c r="L23" t="n">
         <v>1640.283510208882</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.110798274891</v>
+        <v>2288.680572079041</v>
       </c>
       <c r="N23" t="n">
-        <v>3280.587932464504</v>
+        <v>3108.157706268654</v>
       </c>
       <c r="O23" t="n">
         <v>3836.779088617572</v>
@@ -6016,25 +6016,25 @@
         <v>4850.096907571469</v>
       </c>
       <c r="S23" t="n">
-        <v>4718.922007935513</v>
+        <v>4718.922007935512</v>
       </c>
       <c r="T23" t="n">
-        <v>4508.932380038165</v>
+        <v>4508.932380038164</v>
       </c>
       <c r="U23" t="n">
-        <v>4255.328585111539</v>
+        <v>4255.328585111538</v>
       </c>
       <c r="V23" t="n">
-        <v>3924.265697767968</v>
+        <v>3924.265697767967</v>
       </c>
       <c r="W23" t="n">
-        <v>3571.497042497854</v>
+        <v>3571.497042497853</v>
       </c>
       <c r="X23" t="n">
-        <v>3198.031284236774</v>
+        <v>3198.031284236773</v>
       </c>
       <c r="Y23" t="n">
-        <v>2807.891952260962</v>
+        <v>2807.891952260961</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>145.2729944327091</v>
       </c>
       <c r="K24" t="n">
-        <v>305.9307428430648</v>
+        <v>305.9307428430649</v>
       </c>
       <c r="L24" t="n">
-        <v>568.2774531335278</v>
+        <v>568.2774531335281</v>
       </c>
       <c r="M24" t="n">
-        <v>1183.687824375223</v>
+        <v>1183.687824375222</v>
       </c>
       <c r="N24" t="n">
         <v>2006.763623501685</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.6426158920328</v>
+        <v>524.6766999693971</v>
       </c>
       <c r="C25" t="n">
-        <v>822.706432964126</v>
+        <v>524.6766999693971</v>
       </c>
       <c r="D25" t="n">
-        <v>672.5897935517902</v>
+        <v>524.6766999693971</v>
       </c>
       <c r="E25" t="n">
         <v>524.6766999693971</v>
@@ -6150,13 +6150,13 @@
         <v>113.6381716278345</v>
       </c>
       <c r="K25" t="n">
-        <v>270.8134503921436</v>
+        <v>270.8134503921437</v>
       </c>
       <c r="L25" t="n">
         <v>527.4701282589174</v>
       </c>
       <c r="M25" t="n">
-        <v>808.4677322423089</v>
+        <v>808.467732242309</v>
       </c>
       <c r="N25" t="n">
         <v>1088.218457685355</v>
@@ -6171,28 +6171,28 @@
         <v>1558.34476485257</v>
       </c>
       <c r="R25" t="n">
-        <v>1450.02974509006</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="S25" t="n">
-        <v>1251.179504598464</v>
+        <v>1359.494524360975</v>
       </c>
       <c r="T25" t="n">
-        <v>1251.179504598464</v>
+        <v>1359.494524360975</v>
       </c>
       <c r="U25" t="n">
-        <v>1251.179504598464</v>
+        <v>1155.107294841184</v>
       </c>
       <c r="V25" t="n">
-        <v>1251.179504598464</v>
+        <v>1155.107294841184</v>
       </c>
       <c r="W25" t="n">
-        <v>1251.179504598464</v>
+        <v>1155.107294841184</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.179504598464</v>
+        <v>927.1177439431669</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.291080722272</v>
+        <v>706.3251647996368</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2052.329595256429</v>
       </c>
       <c r="D26" t="n">
-        <v>1694.063896649679</v>
+        <v>1694.063896649678</v>
       </c>
       <c r="E26" t="n">
         <v>1308.275644051434</v>
       </c>
       <c r="F26" t="n">
-        <v>897.289739261827</v>
+        <v>897.2897392618265</v>
       </c>
       <c r="G26" t="n">
-        <v>481.300811601039</v>
+        <v>481.3008116010391</v>
       </c>
       <c r="H26" t="n">
         <v>174.3313359536963</v>
@@ -6229,7 +6229,7 @@
         <v>377.0497545901375</v>
       </c>
       <c r="K26" t="n">
-        <v>917.5136407720469</v>
+        <v>917.513640772047</v>
       </c>
       <c r="L26" t="n">
         <v>1640.283510208882</v>
@@ -6238,13 +6238,13 @@
         <v>2461.110798274891</v>
       </c>
       <c r="N26" t="n">
-        <v>3280.587932464504</v>
+        <v>3108.157706268654</v>
       </c>
       <c r="O26" t="n">
-        <v>4009.209314813421</v>
+        <v>3836.779088617572</v>
       </c>
       <c r="P26" t="n">
-        <v>4593.396424489232</v>
+        <v>4420.966198293383</v>
       </c>
       <c r="Q26" t="n">
         <v>4782.444628828674</v>
@@ -6317,7 +6317,7 @@
         <v>1450.26026011685</v>
       </c>
       <c r="N27" t="n">
-        <v>1798.787108643195</v>
+        <v>1798.787108643194</v>
       </c>
       <c r="O27" t="n">
         <v>2095.401289599389</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>534.6483963636917</v>
+        <v>673.2296817748959</v>
       </c>
       <c r="C28" t="n">
-        <v>521.6944056619955</v>
+        <v>504.293498846989</v>
       </c>
       <c r="D28" t="n">
-        <v>521.6944056619955</v>
+        <v>354.1768594346532</v>
       </c>
       <c r="E28" t="n">
-        <v>521.6944056619955</v>
+        <v>206.2637658522601</v>
       </c>
       <c r="F28" t="n">
-        <v>374.8044581640851</v>
+        <v>206.2637658522601</v>
       </c>
       <c r="G28" t="n">
-        <v>206.6905212805743</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="H28" t="n">
-        <v>206.6905212805743</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="I28" t="n">
         <v>97.00193815142939</v>
@@ -6387,13 +6387,13 @@
         <v>113.6381716278345</v>
       </c>
       <c r="K28" t="n">
-        <v>270.8134503921436</v>
+        <v>270.8134503921437</v>
       </c>
       <c r="L28" t="n">
         <v>527.4701282589174</v>
       </c>
       <c r="M28" t="n">
-        <v>808.4677322423089</v>
+        <v>808.467732242309</v>
       </c>
       <c r="N28" t="n">
         <v>1088.218457685355</v>
@@ -6408,28 +6408,28 @@
         <v>1558.34476485257</v>
       </c>
       <c r="R28" t="n">
-        <v>1450.02974509006</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="S28" t="n">
-        <v>1450.02974509006</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="T28" t="n">
-        <v>1226.506610374422</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="U28" t="n">
-        <v>1226.506610374422</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="V28" t="n">
-        <v>1226.506610374422</v>
+        <v>1303.660276646683</v>
       </c>
       <c r="W28" t="n">
-        <v>937.0894403374616</v>
+        <v>1303.660276646683</v>
       </c>
       <c r="X28" t="n">
-        <v>937.0894403374616</v>
+        <v>1075.670725748666</v>
       </c>
       <c r="Y28" t="n">
-        <v>716.2968611939315</v>
+        <v>854.8781466051356</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2421.29211219684</v>
+        <v>2421.292112196839</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.329595256429</v>
+        <v>2052.329595256428</v>
       </c>
       <c r="D29" t="n">
         <v>1694.063896649678</v>
@@ -6451,10 +6451,10 @@
         <v>1308.275644051434</v>
       </c>
       <c r="F29" t="n">
-        <v>897.2897392618265</v>
+        <v>897.2897392618261</v>
       </c>
       <c r="G29" t="n">
-        <v>481.300811601039</v>
+        <v>481.3008116010387</v>
       </c>
       <c r="H29" t="n">
         <v>174.3313359536963</v>
@@ -6463,52 +6463,52 @@
         <v>97.00193815142939</v>
       </c>
       <c r="J29" t="n">
-        <v>209.6441055697844</v>
+        <v>269.6787840685395</v>
       </c>
       <c r="K29" t="n">
-        <v>750.1079917516938</v>
+        <v>810.1426702504489</v>
       </c>
       <c r="L29" t="n">
-        <v>1472.877861188529</v>
+        <v>1532.912539687284</v>
       </c>
       <c r="M29" t="n">
-        <v>2293.705149254538</v>
+        <v>2353.739827753293</v>
       </c>
       <c r="N29" t="n">
-        <v>3113.182283444151</v>
+        <v>3173.216961942906</v>
       </c>
       <c r="O29" t="n">
-        <v>3841.803665793068</v>
+        <v>3901.838344291824</v>
       </c>
       <c r="P29" t="n">
-        <v>4425.990775468879</v>
+        <v>4486.025453967635</v>
       </c>
       <c r="Q29" t="n">
-        <v>4782.444628828674</v>
+        <v>4847.503884502926</v>
       </c>
       <c r="R29" t="n">
         <v>4850.096907571469</v>
       </c>
       <c r="S29" t="n">
-        <v>4718.922007935513</v>
+        <v>4718.922007935512</v>
       </c>
       <c r="T29" t="n">
-        <v>4508.932380038165</v>
+        <v>4508.932380038164</v>
       </c>
       <c r="U29" t="n">
-        <v>4255.328585111539</v>
+        <v>4255.328585111538</v>
       </c>
       <c r="V29" t="n">
-        <v>3924.265697767968</v>
+        <v>3924.265697767967</v>
       </c>
       <c r="W29" t="n">
-        <v>3571.497042497854</v>
+        <v>3571.497042497853</v>
       </c>
       <c r="X29" t="n">
-        <v>3198.031284236774</v>
+        <v>3198.031284236773</v>
       </c>
       <c r="Y29" t="n">
-        <v>2807.891952260962</v>
+        <v>2807.891952260961</v>
       </c>
     </row>
     <row r="30">
@@ -6560,7 +6560,7 @@
         <v>1925.572297231852</v>
       </c>
       <c r="P30" t="n">
-        <v>2459.576402127574</v>
+        <v>2314.127253541573</v>
       </c>
       <c r="Q30" t="n">
         <v>2618.39708644569</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>878.9717384554863</v>
+        <v>725.1178160849172</v>
       </c>
       <c r="C31" t="n">
-        <v>710.0355555275794</v>
+        <v>725.1178160849172</v>
       </c>
       <c r="D31" t="n">
-        <v>559.9189161152436</v>
+        <v>651.3658041661897</v>
       </c>
       <c r="E31" t="n">
-        <v>412.0058225328505</v>
+        <v>503.4527105837966</v>
       </c>
       <c r="F31" t="n">
-        <v>265.1158750349401</v>
+        <v>356.5627630858863</v>
       </c>
       <c r="G31" t="n">
-        <v>97.00193815142939</v>
+        <v>356.5627630858863</v>
       </c>
       <c r="H31" t="n">
-        <v>97.00193815142939</v>
+        <v>206.6905212805743</v>
       </c>
       <c r="I31" t="n">
         <v>97.00193815142939</v>
@@ -6624,13 +6624,13 @@
         <v>113.6381716278345</v>
       </c>
       <c r="K31" t="n">
-        <v>270.8134503921436</v>
+        <v>270.8134503921437</v>
       </c>
       <c r="L31" t="n">
         <v>527.4701282589174</v>
       </c>
       <c r="M31" t="n">
-        <v>808.4677322423089</v>
+        <v>808.467732242309</v>
       </c>
       <c r="N31" t="n">
         <v>1088.218457685355</v>
@@ -6645,28 +6645,28 @@
         <v>1558.34476485257</v>
       </c>
       <c r="R31" t="n">
-        <v>1450.02974509006</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="S31" t="n">
-        <v>1281.412782429256</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="T31" t="n">
-        <v>1281.412782429256</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="U31" t="n">
-        <v>1281.412782429256</v>
+        <v>1269.219474327765</v>
       </c>
       <c r="V31" t="n">
-        <v>1281.412782429256</v>
+        <v>1014.534986121878</v>
       </c>
       <c r="W31" t="n">
-        <v>1281.412782429256</v>
+        <v>725.1178160849172</v>
       </c>
       <c r="X31" t="n">
-        <v>1281.412782429256</v>
+        <v>725.1178160849172</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.620203285726</v>
+        <v>725.1178160849172</v>
       </c>
     </row>
     <row r="32">
@@ -6685,16 +6685,16 @@
         <v>1694.063896649679</v>
       </c>
       <c r="E32" t="n">
-        <v>1308.275644051435</v>
+        <v>1308.275644051434</v>
       </c>
       <c r="F32" t="n">
-        <v>897.2897392618271</v>
+        <v>897.289739261827</v>
       </c>
       <c r="G32" t="n">
         <v>481.3008116010396</v>
       </c>
       <c r="H32" t="n">
-        <v>174.3313359536963</v>
+        <v>174.3313359536969</v>
       </c>
       <c r="I32" t="n">
         <v>97.00193815142939</v>
@@ -6703,7 +6703,7 @@
         <v>377.0497545901375</v>
       </c>
       <c r="K32" t="n">
-        <v>917.5136407720469</v>
+        <v>917.513640772047</v>
       </c>
       <c r="L32" t="n">
         <v>1640.283510208882</v>
@@ -6712,13 +6712,13 @@
         <v>2461.110798274891</v>
       </c>
       <c r="N32" t="n">
-        <v>3108.157706268654</v>
+        <v>3280.587932464504</v>
       </c>
       <c r="O32" t="n">
-        <v>3836.779088617572</v>
+        <v>4009.209314813422</v>
       </c>
       <c r="P32" t="n">
-        <v>4420.966198293383</v>
+        <v>4593.396424489233</v>
       </c>
       <c r="Q32" t="n">
         <v>4782.444628828674</v>
@@ -6785,16 +6785,16 @@
         <v>692.5814524725224</v>
       </c>
       <c r="L33" t="n">
-        <v>1124.757155130523</v>
+        <v>954.9281627629855</v>
       </c>
       <c r="M33" t="n">
-        <v>1450.26026011685</v>
+        <v>1280.431267749313</v>
       </c>
       <c r="N33" t="n">
-        <v>1798.787108643195</v>
+        <v>1628.958116275657</v>
       </c>
       <c r="O33" t="n">
-        <v>2095.401289599389</v>
+        <v>1925.572297231852</v>
       </c>
       <c r="P33" t="n">
         <v>2314.127253541573</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.1158750349401</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="C34" t="n">
-        <v>265.1158750349401</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="D34" t="n">
-        <v>265.1158750349401</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="E34" t="n">
-        <v>265.1158750349401</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="F34" t="n">
-        <v>265.1158750349401</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="G34" t="n">
         <v>97.00193815142939</v>
@@ -6861,13 +6861,13 @@
         <v>113.6381716278345</v>
       </c>
       <c r="K34" t="n">
-        <v>270.8134503921436</v>
+        <v>270.8134503921437</v>
       </c>
       <c r="L34" t="n">
         <v>527.4701282589174</v>
       </c>
       <c r="M34" t="n">
-        <v>808.4677322423089</v>
+        <v>808.467732242309</v>
       </c>
       <c r="N34" t="n">
         <v>1088.218457685355</v>
@@ -6882,28 +6882,28 @@
         <v>1558.34476485257</v>
       </c>
       <c r="R34" t="n">
-        <v>1450.02974509006</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="S34" t="n">
-        <v>1450.02974509006</v>
+        <v>1359.494524360975</v>
       </c>
       <c r="T34" t="n">
-        <v>1450.02974509006</v>
+        <v>1135.971389645337</v>
       </c>
       <c r="U34" t="n">
-        <v>1439.648128149575</v>
+        <v>861.8961755378069</v>
       </c>
       <c r="V34" t="n">
-        <v>1184.963639943688</v>
+        <v>607.2116873319201</v>
       </c>
       <c r="W34" t="n">
-        <v>895.5464699067273</v>
+        <v>317.7945172949595</v>
       </c>
       <c r="X34" t="n">
-        <v>667.55691900871</v>
+        <v>317.7945172949595</v>
       </c>
       <c r="Y34" t="n">
-        <v>446.7643398651799</v>
+        <v>97.00193815142939</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1264.220128891379</v>
+        <v>1069.878606565873</v>
       </c>
       <c r="C35" t="n">
-        <v>1264.220128891379</v>
+        <v>1069.878606565873</v>
       </c>
       <c r="D35" t="n">
-        <v>1264.220128891379</v>
+        <v>744.214772088327</v>
       </c>
       <c r="E35" t="n">
-        <v>878.431876293135</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="F35" t="n">
-        <v>467.4459715035275</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="G35" t="n">
-        <v>51.45704384274003</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="H35" t="n">
-        <v>51.45704384274003</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I35" t="n">
-        <v>51.45704384274003</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J35" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K35" t="n">
-        <v>383.6591389975514</v>
+        <v>551.0647880179044</v>
       </c>
       <c r="L35" t="n">
-        <v>692.9444060294405</v>
+        <v>860.3500550497936</v>
       </c>
       <c r="M35" t="n">
-        <v>1329.725323583348</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N35" t="n">
-        <v>1736.677732127377</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O35" t="n">
-        <v>2088.306935026177</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P35" t="n">
-        <v>2353.91332361222</v>
+        <v>2353.913323612219</v>
       </c>
       <c r="Q35" t="n">
-        <v>2505.199913394205</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R35" t="n">
-        <v>2572.852192137002</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="S35" t="n">
-        <v>2572.852192137002</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T35" t="n">
-        <v>2572.852192137002</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U35" t="n">
-        <v>2572.852192137002</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V35" t="n">
-        <v>2572.852192137002</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="W35" t="n">
-        <v>2414.425059192393</v>
+        <v>2220.083536866886</v>
       </c>
       <c r="X35" t="n">
-        <v>2040.959300931313</v>
+        <v>1846.617778605807</v>
       </c>
       <c r="Y35" t="n">
-        <v>1650.819968955501</v>
+        <v>1456.478446629995</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>172.3569989104732</v>
       </c>
       <c r="H36" t="n">
-        <v>77.11927188230877</v>
+        <v>77.11927188230874</v>
       </c>
       <c r="I36" t="n">
-        <v>51.45704384274003</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J36" t="n">
-        <v>99.7281001240197</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K36" t="n">
-        <v>522.2064331768283</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L36" t="n">
-        <v>784.5531434672914</v>
+        <v>909.3832684542963</v>
       </c>
       <c r="M36" t="n">
-        <v>1110.056248453619</v>
+        <v>1234.886373440623</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.583096979963</v>
+        <v>1583.413221966968</v>
       </c>
       <c r="O36" t="n">
-        <v>1755.197277936158</v>
+        <v>1880.027402923163</v>
       </c>
       <c r="P36" t="n">
-        <v>2289.20138283188</v>
+        <v>2268.582359232883</v>
       </c>
       <c r="Q36" t="n">
         <v>2572.852192137001</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>219.5709807262508</v>
+        <v>536.4202572365508</v>
       </c>
       <c r="C37" t="n">
-        <v>219.5709807262508</v>
+        <v>367.4840743086439</v>
       </c>
       <c r="D37" t="n">
-        <v>219.5709807262508</v>
+        <v>367.4840743086439</v>
       </c>
       <c r="E37" t="n">
         <v>219.5709807262508</v>
@@ -7086,22 +7086,22 @@
         <v>219.5709807262508</v>
       </c>
       <c r="G37" t="n">
-        <v>51.45704384274003</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H37" t="n">
-        <v>51.45704384274003</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I37" t="n">
-        <v>51.45704384274003</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J37" t="n">
-        <v>68.09327731914516</v>
+        <v>68.09327731914514</v>
       </c>
       <c r="K37" t="n">
         <v>225.2685560834543</v>
       </c>
       <c r="L37" t="n">
-        <v>481.925233950228</v>
+        <v>481.9252339502281</v>
       </c>
       <c r="M37" t="n">
         <v>762.9228379336196</v>
@@ -7119,28 +7119,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R37" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S37" t="n">
-        <v>1404.48485078137</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T37" t="n">
-        <v>1180.961716065733</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="U37" t="n">
-        <v>891.8364255409275</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="V37" t="n">
-        <v>736.9777016612288</v>
+        <v>1059.265141846398</v>
       </c>
       <c r="W37" t="n">
-        <v>447.5605316242682</v>
+        <v>769.8479718094377</v>
       </c>
       <c r="X37" t="n">
-        <v>219.5709807262508</v>
+        <v>757.2128363800809</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.5709807262508</v>
+        <v>536.4202572365508</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1633.182645831791</v>
+        <v>2017.481519281401</v>
       </c>
       <c r="C38" t="n">
-        <v>1264.220128891379</v>
+        <v>1648.519002340989</v>
       </c>
       <c r="D38" t="n">
-        <v>1264.220128891379</v>
+        <v>1648.519002340989</v>
       </c>
       <c r="E38" t="n">
-        <v>878.431876293135</v>
+        <v>1262.730749742745</v>
       </c>
       <c r="F38" t="n">
-        <v>467.4459715035275</v>
+        <v>851.7448449531371</v>
       </c>
       <c r="G38" t="n">
-        <v>51.45704384274001</v>
+        <v>435.7559172923496</v>
       </c>
       <c r="H38" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="I38" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J38" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K38" t="n">
-        <v>383.6591389975513</v>
+        <v>551.0647880179044</v>
       </c>
       <c r="L38" t="n">
-        <v>692.9444060294404</v>
+        <v>860.3500550497936</v>
       </c>
       <c r="M38" t="n">
-        <v>1329.725323583348</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N38" t="n">
-        <v>1801.736987801629</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O38" t="n">
-        <v>2153.366190700428</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P38" t="n">
-        <v>2418.972579286472</v>
+        <v>2239.898215464491</v>
       </c>
       <c r="Q38" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R38" t="n">
         <v>2572.852192137001</v>
@@ -7207,19 +7207,19 @@
         <v>2572.852192137001</v>
       </c>
       <c r="U38" t="n">
-        <v>2572.852192137001</v>
+        <v>2390.947277542481</v>
       </c>
       <c r="V38" t="n">
-        <v>2572.852192137001</v>
+        <v>2390.947277542481</v>
       </c>
       <c r="W38" t="n">
-        <v>2572.852192137001</v>
+        <v>2390.947277542481</v>
       </c>
       <c r="X38" t="n">
-        <v>2199.386433875921</v>
+        <v>2017.481519281401</v>
       </c>
       <c r="Y38" t="n">
-        <v>1809.247101900109</v>
+        <v>2017.481519281401</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>938.3699096944694</v>
+        <v>938.3699096944688</v>
       </c>
       <c r="C39" t="n">
-        <v>763.9168804133424</v>
+        <v>763.9168804133418</v>
       </c>
       <c r="D39" t="n">
-        <v>614.9824707520911</v>
+        <v>614.9824707520906</v>
       </c>
       <c r="E39" t="n">
-        <v>455.7450157466357</v>
+        <v>455.7450157466351</v>
       </c>
       <c r="F39" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735201</v>
       </c>
       <c r="G39" t="n">
-        <v>172.3569989104732</v>
+        <v>172.3569989104731</v>
       </c>
       <c r="H39" t="n">
-        <v>77.11927188230874</v>
+        <v>77.11927188230857</v>
       </c>
       <c r="I39" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J39" t="n">
-        <v>224.5582251110244</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K39" t="n">
-        <v>647.036558163833</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L39" t="n">
-        <v>909.3832684542961</v>
+        <v>909.3832684542963</v>
       </c>
       <c r="M39" t="n">
         <v>1234.886373440623</v>
@@ -7268,7 +7268,7 @@
         <v>1583.413221966968</v>
       </c>
       <c r="O39" t="n">
-        <v>1880.027402923162</v>
+        <v>1880.027402923163</v>
       </c>
       <c r="P39" t="n">
         <v>2253.496779410548</v>
@@ -7280,7 +7280,7 @@
         <v>2572.852192137001</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.306107928099</v>
+        <v>2434.306107928098</v>
       </c>
       <c r="T39" t="n">
         <v>2239.686617951057</v>
@@ -7289,7 +7289,7 @@
         <v>2011.586510644968</v>
       </c>
       <c r="V39" t="n">
-        <v>1776.434402413226</v>
+        <v>1776.434402413225</v>
       </c>
       <c r="W39" t="n">
         <v>1522.197045685024</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>257.1995465689952</v>
+        <v>517.3563161139558</v>
       </c>
       <c r="C40" t="n">
-        <v>257.1995465689952</v>
+        <v>517.3563161139558</v>
       </c>
       <c r="D40" t="n">
-        <v>257.1995465689952</v>
+        <v>517.3563161139558</v>
       </c>
       <c r="E40" t="n">
-        <v>257.1995465689952</v>
+        <v>369.4432225315627</v>
       </c>
       <c r="F40" t="n">
-        <v>110.3095990710849</v>
+        <v>369.4432225315627</v>
       </c>
       <c r="G40" t="n">
-        <v>110.3095990710849</v>
+        <v>201.329285648052</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3095990710849</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I40" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J40" t="n">
-        <v>68.09327731914513</v>
+        <v>68.09327731914514</v>
       </c>
       <c r="K40" t="n">
         <v>225.2685560834543</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9252339502279</v>
+        <v>481.9252339502281</v>
       </c>
       <c r="M40" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336196</v>
       </c>
       <c r="N40" t="n">
         <v>1042.673563376666</v>
@@ -7356,28 +7356,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R40" t="n">
-        <v>1512.799870543881</v>
+        <v>1404.48485078137</v>
       </c>
       <c r="S40" t="n">
-        <v>1313.949630052285</v>
+        <v>1205.634610289775</v>
       </c>
       <c r="T40" t="n">
-        <v>1090.426495336648</v>
+        <v>982.1114755741376</v>
       </c>
       <c r="U40" t="n">
-        <v>801.3012048118427</v>
+        <v>982.1114755741376</v>
       </c>
       <c r="V40" t="n">
-        <v>546.6167166059558</v>
+        <v>727.4269873682507</v>
       </c>
       <c r="W40" t="n">
-        <v>257.1995465689952</v>
+        <v>727.4269873682507</v>
       </c>
       <c r="X40" t="n">
-        <v>257.1995465689952</v>
+        <v>699.0047809441955</v>
       </c>
       <c r="Y40" t="n">
-        <v>257.1995465689952</v>
+        <v>699.0047809441955</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1264.220128891379</v>
+        <v>1454.948492563764</v>
       </c>
       <c r="C41" t="n">
-        <v>1264.220128891379</v>
+        <v>1085.985975623352</v>
       </c>
       <c r="D41" t="n">
-        <v>1264.220128891379</v>
+        <v>878.431876293135</v>
       </c>
       <c r="E41" t="n">
         <v>878.431876293135</v>
@@ -7411,52 +7411,52 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J41" t="n">
-        <v>164.0992112610951</v>
+        <v>300.3873833501236</v>
       </c>
       <c r="K41" t="n">
-        <v>383.6591389975513</v>
+        <v>519.9473110865799</v>
       </c>
       <c r="L41" t="n">
-        <v>692.9444060294404</v>
+        <v>829.2325781184691</v>
       </c>
       <c r="M41" t="n">
-        <v>1068.753295937545</v>
+        <v>1205.041468026574</v>
       </c>
       <c r="N41" t="n">
-        <v>1455.256974959294</v>
+        <v>1591.545147048323</v>
       </c>
       <c r="O41" t="n">
-        <v>1806.886177858094</v>
+        <v>1943.174349947123</v>
       </c>
       <c r="P41" t="n">
-        <v>2143.721482858914</v>
+        <v>2208.780738533166</v>
       </c>
       <c r="Q41" t="n">
-        <v>2505.199913394204</v>
+        <v>2570.259169068457</v>
       </c>
       <c r="R41" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S41" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="T41" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U41" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="V41" t="n">
-        <v>2414.425059192393</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="W41" t="n">
-        <v>2414.425059192393</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="X41" t="n">
-        <v>2040.959300931313</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="Y41" t="n">
-        <v>1650.819968955501</v>
+        <v>1841.548332627885</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>938.3699096944692</v>
+        <v>938.3699096944694</v>
       </c>
       <c r="C42" t="n">
-        <v>763.9168804133423</v>
+        <v>763.9168804133424</v>
       </c>
       <c r="D42" t="n">
-        <v>614.9824707520909</v>
+        <v>614.9824707520911</v>
       </c>
       <c r="E42" t="n">
-        <v>455.7450157466353</v>
+        <v>455.7450157466357</v>
       </c>
       <c r="F42" t="n">
-        <v>309.2104577735204</v>
+        <v>309.2104577735206</v>
       </c>
       <c r="G42" t="n">
-        <v>172.3569989104731</v>
+        <v>172.3569989104732</v>
       </c>
       <c r="H42" t="n">
         <v>77.11927188230874</v>
@@ -7490,25 +7490,25 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J42" t="n">
-        <v>224.5582251110244</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K42" t="n">
-        <v>647.036558163833</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L42" t="n">
-        <v>1079.212260821833</v>
+        <v>998.934706652761</v>
       </c>
       <c r="M42" t="n">
-        <v>1404.71536580816</v>
+        <v>1324.437811639088</v>
       </c>
       <c r="N42" t="n">
-        <v>1753.242214334505</v>
+        <v>1961.218729192996</v>
       </c>
       <c r="O42" t="n">
-        <v>2049.856395290699</v>
+        <v>2257.83291014919</v>
       </c>
       <c r="P42" t="n">
-        <v>2268.582359232883</v>
+        <v>2476.558874091374</v>
       </c>
       <c r="Q42" t="n">
         <v>2572.852192137001</v>
@@ -7517,7 +7517,7 @@
         <v>2572.852192137001</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.306107928098</v>
+        <v>2434.306107928099</v>
       </c>
       <c r="T42" t="n">
         <v>2239.686617951057</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.45704384274001</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="C43" t="n">
-        <v>51.45704384274001</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="D43" t="n">
-        <v>51.45704384274001</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="E43" t="n">
-        <v>51.45704384274001</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="F43" t="n">
-        <v>51.45704384274001</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="G43" t="n">
-        <v>51.45704384274001</v>
+        <v>311.0178687771969</v>
       </c>
       <c r="H43" t="n">
-        <v>51.45704384274001</v>
+        <v>161.145626971885</v>
       </c>
       <c r="I43" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J43" t="n">
-        <v>68.09327731914513</v>
+        <v>68.09327731914514</v>
       </c>
       <c r="K43" t="n">
         <v>225.2685560834543</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9252339502279</v>
+        <v>481.9252339502281</v>
       </c>
       <c r="M43" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336196</v>
       </c>
       <c r="N43" t="n">
         <v>1042.673563376666</v>
@@ -7596,25 +7596,25 @@
         <v>1512.799870543881</v>
       </c>
       <c r="S43" t="n">
-        <v>1313.949630052285</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="T43" t="n">
-        <v>1090.426495336648</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="U43" t="n">
-        <v>801.3012048118427</v>
+        <v>1223.674580019075</v>
       </c>
       <c r="V43" t="n">
-        <v>546.6167166059558</v>
+        <v>968.9900918131883</v>
       </c>
       <c r="W43" t="n">
-        <v>272.2496229862701</v>
+        <v>679.5729217762278</v>
       </c>
       <c r="X43" t="n">
-        <v>272.2496229862701</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.45704384274001</v>
+        <v>479.1318056607076</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1543.667050547228</v>
+        <v>1422.647261835987</v>
       </c>
       <c r="C44" t="n">
-        <v>1543.667050547228</v>
+        <v>1422.647261835987</v>
       </c>
       <c r="D44" t="n">
-        <v>1185.401351940478</v>
+        <v>1422.647261835987</v>
       </c>
       <c r="E44" t="n">
-        <v>1185.401351940478</v>
+        <v>1036.859009237743</v>
       </c>
       <c r="F44" t="n">
-        <v>774.4154471508701</v>
+        <v>625.8731044481356</v>
       </c>
       <c r="G44" t="n">
-        <v>358.4265194900827</v>
+        <v>209.8841767873481</v>
       </c>
       <c r="H44" t="n">
-        <v>51.45704384274002</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="I44" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J44" t="n">
         <v>331.5048602814481</v>
       </c>
       <c r="K44" t="n">
-        <v>551.0647880179043</v>
+        <v>551.0647880179044</v>
       </c>
       <c r="L44" t="n">
-        <v>860.3500550497935</v>
+        <v>860.3500550497936</v>
       </c>
       <c r="M44" t="n">
-        <v>1350.174053105628</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N44" t="n">
-        <v>1736.677732127377</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O44" t="n">
-        <v>2088.306935026176</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P44" t="n">
-        <v>2353.91332361222</v>
+        <v>2239.898215464491</v>
       </c>
       <c r="Q44" t="n">
-        <v>2505.199913394205</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R44" t="n">
         <v>2572.852192137001</v>
@@ -7678,22 +7678,22 @@
         <v>2572.852192137001</v>
       </c>
       <c r="T44" t="n">
-        <v>2362.862564239654</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U44" t="n">
-        <v>2362.862564239654</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V44" t="n">
-        <v>2320.406222587162</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="W44" t="n">
-        <v>2320.406222587162</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="X44" t="n">
-        <v>2320.406222587162</v>
+        <v>2199.386433875921</v>
       </c>
       <c r="Y44" t="n">
-        <v>1930.26689061135</v>
+        <v>1809.247101900109</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>455.7450157466355</v>
       </c>
       <c r="F45" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735205</v>
       </c>
       <c r="G45" t="n">
-        <v>172.3569989104733</v>
+        <v>172.3569989104732</v>
       </c>
       <c r="H45" t="n">
-        <v>77.11927188230875</v>
+        <v>77.11927188230874</v>
       </c>
       <c r="I45" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J45" t="n">
-        <v>99.7281001240197</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K45" t="n">
-        <v>522.2064331768283</v>
+        <v>647.0365581638331</v>
       </c>
       <c r="L45" t="n">
-        <v>784.5531434672914</v>
+        <v>1079.212260821833</v>
       </c>
       <c r="M45" t="n">
-        <v>1110.056248453619</v>
+        <v>1404.71536580816</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.583096979963</v>
+        <v>1753.242214334505</v>
       </c>
       <c r="O45" t="n">
-        <v>1755.197277936158</v>
+        <v>2049.856395290699</v>
       </c>
       <c r="P45" t="n">
-        <v>2289.20138283188</v>
+        <v>2268.582359232883</v>
       </c>
       <c r="Q45" t="n">
         <v>2572.852192137001</v>
@@ -7757,7 +7757,7 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T45" t="n">
-        <v>2239.686617951058</v>
+        <v>2239.686617951057</v>
       </c>
       <c r="U45" t="n">
         <v>2011.586510644968</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.45704384274002</v>
+        <v>201.5736832550757</v>
       </c>
       <c r="C46" t="n">
-        <v>51.45704384274002</v>
+        <v>201.5736832550757</v>
       </c>
       <c r="D46" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="E46" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="F46" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="G46" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H46" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I46" t="n">
-        <v>51.45704384274002</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="J46" t="n">
         <v>68.09327731914514</v>
@@ -7812,7 +7812,7 @@
         <v>225.2685560834543</v>
       </c>
       <c r="L46" t="n">
-        <v>481.925233950228</v>
+        <v>481.9252339502281</v>
       </c>
       <c r="M46" t="n">
         <v>762.9228379336196</v>
@@ -7833,25 +7833,25 @@
         <v>1512.799870543881</v>
       </c>
       <c r="S46" t="n">
-        <v>1512.799870543881</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T46" t="n">
-        <v>1289.276735828243</v>
+        <v>1090.426495336648</v>
       </c>
       <c r="U46" t="n">
-        <v>1000.151445303438</v>
+        <v>1090.426495336648</v>
       </c>
       <c r="V46" t="n">
-        <v>745.4669570975511</v>
+        <v>900.6288690202935</v>
       </c>
       <c r="W46" t="n">
-        <v>456.0497870605905</v>
+        <v>611.2116989833328</v>
       </c>
       <c r="X46" t="n">
-        <v>228.0602361625732</v>
+        <v>383.2221480853154</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.45704384274002</v>
+        <v>383.2221480853154</v>
       </c>
     </row>
   </sheetData>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.8831957797792</v>
+        <v>115.1667759067962</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>121.5876408509183</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>314.4220328965461</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>171.5444367348858</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>30.2837103948202</v>
+        <v>30.28371039482019</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.1667759067971</v>
+        <v>115.1667759067962</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>291.1657262904677</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>343.6027642401147</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>171.5444367348856</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>41.60218134755175</v>
+        <v>30.28371039482019</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6648202919488</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>115.1667759067965</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>171.5444367348862</v>
+        <v>156.3064773183849</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>30.2837103948202</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>115.1667759067965</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.1667759067967</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>171.5444367348861</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>67.63692346382533</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>30.2837103948202</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,13 +9646,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>275.3415878404585</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>206.6282356103719</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>292.8356224801694</v>
+        <v>292.8356224801686</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>30.2837103948202</v>
+        <v>30.28371039482019</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>263.17497875961</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>38.14304500753136</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>171.5444367348861</v>
+        <v>171.5444367348858</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>30.2837103948202</v>
+        <v>30.28371039482019</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>60.64108939268181</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>207.239660179605</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>171.5444367348858</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.15895583079777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>30.2837103948202</v>
+        <v>30.28371039482019</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>263.1749787596106</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>38.14304500753036</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>171.5444367348861</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>171.5444367348858</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>30.2837103948202</v>
+        <v>30.28371039482019</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>263.6081087331344</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>20.65528234573719</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>115.1667759067964</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>171.5444367348856</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.2499911712065</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>30.2837103948202</v>
+        <v>30.28371039482019</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>263.6081087331341</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>86.37170221871901</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>115.1667759067962</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>156.3064773183852</v>
+        <v>156.3064773183849</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>137.664820291948</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>71.94840041896578</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>171.5444367348861</v>
+        <v>90.45599818026744</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>291.1657262904675</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.2837103948202</v>
+        <v>30.28371039482019</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>115.1667759067974</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>115.1667759067962</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>171.5444367348857</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.2499911712069</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>30.2837103948202</v>
+        <v>30.28371039482019</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>59.67899349436698</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>109.9093090133971</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23421,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4327975146757</v>
       </c>
       <c r="H13" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>108.5916972978535</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>243.1467147499662</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.60706298746737</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>148.2206192879597</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.61134596363271</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.0677569773601</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>22.02457769004451</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>240.6092310421394</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>66.17409531940069</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I17" t="n">
-        <v>76.55610382424425</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>207.8897316183737</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>208.4300301558454</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4327975146757</v>
       </c>
       <c r="H19" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>108.5916972978535</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>78.67369937845473</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>7.061394236900583</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>100.2312935469336</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H20" t="n">
         <v>303.8997808908692</v>
       </c>
       <c r="I20" t="n">
-        <v>76.55610382424425</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>94.22489536219834</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4327975146757</v>
+        <v>36.45802012228927</v>
       </c>
       <c r="H22" t="n">
         <v>148.3735193872588</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>119.1993606445088</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>221.2879033684809</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2340376195573</v>
+        <v>83.89068039496473</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.4751137146649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>154.4223703039485</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>58.26358809085323</v>
       </c>
       <c r="H28" t="n">
         <v>148.3735193872588</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S28" t="n">
         <v>196.8617380866793</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U28" t="n">
         <v>286.2340376195573</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>75.60098121867216</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H31" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S31" t="n">
-        <v>29.93094505248371</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T31" t="n">
         <v>221.2879033684809</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H34" t="n">
         <v>148.3735193872588</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S34" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.9562368484774</v>
+        <v>14.89957565310209</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>32.27584548791236</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H35" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.55610382424425</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>192.3981071022504</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S37" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V37" t="n">
-        <v>98.8275066829263</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>213.200871313974</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>208.4300301558457</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.55610382424425</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>207.8897316183737</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0677569773601</v>
+        <v>70.98189152878521</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>50.32766762179209</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>197.5716710292226</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.2044832837681</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I41" t="n">
-        <v>76.55610382424425</v>
+        <v>76.55610382424422</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.0677569773601</v>
       </c>
       <c r="V41" t="n">
-        <v>170.9093968549732</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>14.89957565310215</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>27.27295043467225</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>223.6130230999514</v>
       </c>
       <c r="I44" t="n">
-        <v>76.55610382424425</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>129.863150639597</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U44" t="n">
         <v>251.0677569773601</v>
       </c>
       <c r="V44" t="n">
-        <v>285.7204802341678</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,16 +26073,16 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S46" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>64.23799327063699</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.74749295545996</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>590362.3817739225</v>
+        <v>590362.3817739226</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590362.3817739226</v>
+        <v>590362.3817739225</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>590362.3817739226</v>
+        <v>590362.3817739225</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>590362.3817739225</v>
+        <v>590362.3817739226</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>590362.3817739226</v>
+        <v>590362.3817739225</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>675902.9794415567</v>
       </c>
       <c r="E2" t="n">
-        <v>501405.2798416909</v>
+        <v>501405.2798416905</v>
       </c>
       <c r="F2" t="n">
         <v>501405.2798416907</v>
       </c>
       <c r="G2" t="n">
-        <v>501405.2798416907</v>
+        <v>501405.2798416904</v>
       </c>
       <c r="H2" t="n">
         <v>501405.2798416906</v>
       </c>
       <c r="I2" t="n">
-        <v>646495.4498224879</v>
+        <v>646495.4498224874</v>
       </c>
       <c r="J2" t="n">
-        <v>646495.4498224878</v>
+        <v>646495.449822488</v>
       </c>
       <c r="K2" t="n">
-        <v>646495.449822488</v>
+        <v>646495.4498224875</v>
       </c>
       <c r="L2" t="n">
-        <v>646495.4498224879</v>
+        <v>646495.4498224875</v>
       </c>
       <c r="M2" t="n">
-        <v>501405.2798416906</v>
+        <v>501405.2798416904</v>
       </c>
       <c r="N2" t="n">
         <v>501405.2798416903</v>
       </c>
       <c r="O2" t="n">
+        <v>501405.2798416903</v>
+      </c>
+      <c r="P2" t="n">
         <v>501405.2798416906</v>
-      </c>
-      <c r="P2" t="n">
-        <v>501405.2798416904</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>886255.8658040955</v>
+        <v>886255.8658040958</v>
       </c>
       <c r="F3" t="n">
-        <v>8.041615094651678e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18416.64140604486</v>
+        <v>18416.64140604448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768272</v>
       </c>
       <c r="F4" t="n">
-        <v>28699.92018768275</v>
+        <v>28699.92018768272</v>
       </c>
       <c r="G4" t="n">
-        <v>28699.92018768276</v>
+        <v>28699.92018768273</v>
       </c>
       <c r="H4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768273</v>
       </c>
       <c r="I4" t="n">
-        <v>87286.32355249726</v>
+        <v>87286.32355249723</v>
       </c>
       <c r="J4" t="n">
-        <v>87286.32355249726</v>
+        <v>87286.32355249723</v>
       </c>
       <c r="K4" t="n">
-        <v>87286.32355249726</v>
+        <v>87286.32355249721</v>
       </c>
       <c r="L4" t="n">
-        <v>87286.32355249724</v>
+        <v>87286.32355249721</v>
       </c>
       <c r="M4" t="n">
-        <v>28699.92018768276</v>
+        <v>28699.92018768273</v>
       </c>
       <c r="N4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768272</v>
       </c>
       <c r="O4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768273</v>
       </c>
       <c r="P4" t="n">
-        <v>28699.92018768276</v>
+        <v>28699.92018768272</v>
       </c>
     </row>
     <row r="5">
@@ -26502,7 +26502,7 @@
         <v>92558.47495747523</v>
       </c>
       <c r="M5" t="n">
-        <v>57944.35528287132</v>
+        <v>57944.35528287131</v>
       </c>
       <c r="N5" t="n">
         <v>57944.35528287131</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227458.8450499167</v>
+        <v>227498.5672507297</v>
       </c>
       <c r="C6" t="n">
-        <v>227458.8450499167</v>
+        <v>227498.5672507297</v>
       </c>
       <c r="D6" t="n">
-        <v>227458.8450499167</v>
+        <v>227498.5672507297</v>
       </c>
       <c r="E6" t="n">
-        <v>-476826.8062904236</v>
+        <v>-472028.0559187058</v>
       </c>
       <c r="F6" t="n">
-        <v>409429.0595136716</v>
+        <v>414227.8098853902</v>
       </c>
       <c r="G6" t="n">
-        <v>409429.0595136717</v>
+        <v>414227.8098853899</v>
       </c>
       <c r="H6" t="n">
-        <v>409429.0595136716</v>
+        <v>414227.8098853901</v>
       </c>
       <c r="I6" t="n">
-        <v>314323.580279388</v>
+        <v>315165.3260152662</v>
       </c>
       <c r="J6" t="n">
-        <v>465715.3782726503</v>
+        <v>466557.1240085291</v>
       </c>
       <c r="K6" t="n">
-        <v>465715.3782726505</v>
+        <v>466557.1240085287</v>
       </c>
       <c r="L6" t="n">
-        <v>465715.3782726504</v>
+        <v>466557.1240085287</v>
       </c>
       <c r="M6" t="n">
-        <v>391012.4181076267</v>
+        <v>395811.1684793454</v>
       </c>
       <c r="N6" t="n">
-        <v>409429.0595136714</v>
+        <v>414227.8098853898</v>
       </c>
       <c r="O6" t="n">
-        <v>409429.0595136716</v>
+        <v>414227.8098853898</v>
       </c>
       <c r="P6" t="n">
-        <v>409429.0595136715</v>
+        <v>414227.80988539</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="F3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="G3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="H3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="I3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="J3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="K3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="L3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="M3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="N3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="O3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="P3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
     </row>
     <row r="4">
@@ -26801,10 +26801,10 @@
         <v>643.2130480342502</v>
       </c>
       <c r="F4" t="n">
-        <v>643.2130480342503</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="G4" t="n">
-        <v>643.2130480342503</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="H4" t="n">
         <v>643.2130480342502</v>
@@ -26822,7 +26822,7 @@
         <v>1212.524226892867</v>
       </c>
       <c r="M4" t="n">
-        <v>643.2130480342504</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="N4" t="n">
         <v>643.2130480342502</v>
@@ -26831,7 +26831,7 @@
         <v>643.2130480342502</v>
       </c>
       <c r="P4" t="n">
-        <v>643.2130480342503</v>
+        <v>643.2130480342502</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.082658825179</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>643.2130480342502</v>
       </c>
       <c r="F4" t="n">
-        <v>2.806591755949435e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>73.90186917563466</v>
+        <v>73.90186917563314</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27269,7 +27269,7 @@
         <v>643.2130480342502</v>
       </c>
       <c r="N4" t="n">
-        <v>2.806591755949435e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,19 +31752,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H11" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I11" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J11" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K11" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L11" t="n">
         <v>548.1757756082591</v>
@@ -31773,10 +31773,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N11" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O11" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P11" t="n">
         <v>499.5222771553136</v>
@@ -31785,10 +31785,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R11" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S11" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T11" t="n">
         <v>15.20611794575767</v>
@@ -31843,19 +31843,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K12" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L12" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M12" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N12" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O12" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P12" t="n">
         <v>354.9097245276476</v>
@@ -31864,16 +31864,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R12" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S12" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T12" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,10 +31913,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H13" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I13" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J13" t="n">
         <v>110.1634563554658</v>
@@ -31949,10 +31949,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T13" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H14" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I14" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J14" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K14" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L14" t="n">
         <v>548.1757756082591</v>
@@ -32010,10 +32010,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N14" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O14" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P14" t="n">
         <v>499.5222771553136</v>
@@ -32022,10 +32022,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R14" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S14" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T14" t="n">
         <v>15.20611794575767</v>
@@ -32080,19 +32080,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K15" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L15" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M15" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N15" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O15" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P15" t="n">
         <v>354.9097245276476</v>
@@ -32101,16 +32101,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R15" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S15" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T15" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,10 +32150,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H16" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I16" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J16" t="n">
         <v>110.1634563554658</v>
@@ -32186,10 +32186,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T16" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H17" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I17" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J17" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K17" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L17" t="n">
         <v>548.1757756082591</v>
@@ -32247,10 +32247,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N17" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O17" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P17" t="n">
         <v>499.5222771553136</v>
@@ -32259,10 +32259,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R17" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S17" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T17" t="n">
         <v>15.20611794575767</v>
@@ -32317,19 +32317,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K18" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L18" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M18" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N18" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O18" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P18" t="n">
         <v>354.9097245276476</v>
@@ -32338,16 +32338,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R18" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S18" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T18" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,10 +32387,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H19" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I19" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J19" t="n">
         <v>110.1634563554658</v>
@@ -32423,10 +32423,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T19" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,19 +32463,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H20" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I20" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J20" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K20" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L20" t="n">
         <v>548.1757756082591</v>
@@ -32484,10 +32484,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N20" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O20" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P20" t="n">
         <v>499.5222771553136</v>
@@ -32496,10 +32496,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R20" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S20" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T20" t="n">
         <v>15.20611794575767</v>
@@ -32554,19 +32554,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K21" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L21" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M21" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N21" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O21" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P21" t="n">
         <v>354.9097245276476</v>
@@ -32575,16 +32575,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R21" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S21" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T21" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,10 +32624,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H22" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I22" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J22" t="n">
         <v>110.1634563554658</v>
@@ -32660,10 +32660,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T22" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H23" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I23" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J23" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K23" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L23" t="n">
         <v>548.1757756082591</v>
@@ -32721,10 +32721,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N23" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O23" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P23" t="n">
         <v>499.5222771553136</v>
@@ -32733,10 +32733,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R23" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S23" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T23" t="n">
         <v>15.20611794575767</v>
@@ -32791,19 +32791,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K24" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L24" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M24" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N24" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O24" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P24" t="n">
         <v>354.9097245276476</v>
@@ -32812,16 +32812,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R24" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S24" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T24" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,10 +32861,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H25" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I25" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J25" t="n">
         <v>110.1634563554658</v>
@@ -32897,10 +32897,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T25" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H26" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I26" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J26" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K26" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L26" t="n">
         <v>548.1757756082591</v>
@@ -32958,10 +32958,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N26" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O26" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P26" t="n">
         <v>499.5222771553136</v>
@@ -32970,10 +32970,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R26" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S26" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T26" t="n">
         <v>15.20611794575767</v>
@@ -33028,19 +33028,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K27" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L27" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M27" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N27" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O27" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P27" t="n">
         <v>354.9097245276476</v>
@@ -33049,16 +33049,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R27" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S27" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T27" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,10 +33098,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H28" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I28" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J28" t="n">
         <v>110.1634563554658</v>
@@ -33134,10 +33134,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T28" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H29" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I29" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J29" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K29" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L29" t="n">
         <v>548.1757756082591</v>
@@ -33195,10 +33195,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N29" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O29" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P29" t="n">
         <v>499.5222771553136</v>
@@ -33207,10 +33207,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R29" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S29" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T29" t="n">
         <v>15.20611794575767</v>
@@ -33265,19 +33265,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K30" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L30" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M30" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N30" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O30" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P30" t="n">
         <v>354.9097245276476</v>
@@ -33286,16 +33286,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R30" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S30" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T30" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,10 +33335,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H31" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I31" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J31" t="n">
         <v>110.1634563554658</v>
@@ -33371,10 +33371,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T31" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H32" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I32" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J32" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K32" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L32" t="n">
         <v>548.1757756082591</v>
@@ -33432,10 +33432,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N32" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O32" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P32" t="n">
         <v>499.5222771553136</v>
@@ -33444,10 +33444,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R32" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S32" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T32" t="n">
         <v>15.20611794575767</v>
@@ -33502,19 +33502,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K33" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L33" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M33" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N33" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O33" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P33" t="n">
         <v>354.9097245276476</v>
@@ -33523,16 +33523,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R33" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S33" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T33" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,10 +33572,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H34" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I34" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J34" t="n">
         <v>110.1634563554658</v>
@@ -33608,10 +33608,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T34" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H35" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I35" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J35" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K35" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L35" t="n">
         <v>548.1757756082591</v>
@@ -33669,10 +33669,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N35" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O35" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P35" t="n">
         <v>499.5222771553136</v>
@@ -33681,10 +33681,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R35" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S35" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T35" t="n">
         <v>15.20611794575767</v>
@@ -33739,19 +33739,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K36" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L36" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M36" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N36" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O36" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P36" t="n">
         <v>354.9097245276476</v>
@@ -33760,16 +33760,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R36" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S36" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T36" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,10 +33809,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H37" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I37" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J37" t="n">
         <v>110.1634563554658</v>
@@ -33845,10 +33845,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T37" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H38" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I38" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J38" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K38" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L38" t="n">
         <v>548.1757756082591</v>
@@ -33906,10 +33906,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N38" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O38" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P38" t="n">
         <v>499.5222771553136</v>
@@ -33918,10 +33918,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R38" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S38" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T38" t="n">
         <v>15.20611794575767</v>
@@ -33976,19 +33976,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K39" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L39" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M39" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N39" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O39" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P39" t="n">
         <v>354.9097245276476</v>
@@ -33997,16 +33997,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R39" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S39" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T39" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,10 +34046,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H40" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I40" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J40" t="n">
         <v>110.1634563554658</v>
@@ -34082,10 +34082,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T40" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H41" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I41" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J41" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K41" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L41" t="n">
         <v>548.1757756082591</v>
@@ -34143,10 +34143,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N41" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O41" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P41" t="n">
         <v>499.5222771553136</v>
@@ -34155,10 +34155,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R41" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S41" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T41" t="n">
         <v>15.20611794575767</v>
@@ -34213,19 +34213,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K42" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L42" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M42" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N42" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O42" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P42" t="n">
         <v>354.9097245276476</v>
@@ -34234,16 +34234,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R42" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S42" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T42" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,10 +34283,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H43" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I43" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J43" t="n">
         <v>110.1634563554658</v>
@@ -34319,10 +34319,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T43" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,19 +34359,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.47369913095549</v>
+        <v>3.473699130955491</v>
       </c>
       <c r="H44" t="n">
-        <v>35.57502122489792</v>
+        <v>35.57502122489793</v>
       </c>
       <c r="I44" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J44" t="n">
-        <v>294.8258716159338</v>
+        <v>294.8258716159339</v>
       </c>
       <c r="K44" t="n">
-        <v>441.8675558292798</v>
+        <v>441.8675558292799</v>
       </c>
       <c r="L44" t="n">
         <v>548.1757756082591</v>
@@ -34380,10 +34380,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N44" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842161</v>
       </c>
       <c r="O44" t="n">
-        <v>585.2792244507773</v>
+        <v>585.2792244507774</v>
       </c>
       <c r="P44" t="n">
         <v>499.5222771553136</v>
@@ -34392,10 +34392,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R44" t="n">
-        <v>218.204753034883</v>
+        <v>218.2047530348831</v>
       </c>
       <c r="S44" t="n">
-        <v>79.15691894664832</v>
+        <v>79.15691894664833</v>
       </c>
       <c r="T44" t="n">
         <v>15.20611794575767</v>
@@ -34450,19 +34450,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K45" t="n">
-        <v>300.1219929242133</v>
+        <v>300.1219929242134</v>
       </c>
       <c r="L45" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M45" t="n">
-        <v>470.9250490597224</v>
+        <v>470.9250490597225</v>
       </c>
       <c r="N45" t="n">
-        <v>483.3890338271159</v>
+        <v>483.389033827116</v>
       </c>
       <c r="O45" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385801</v>
       </c>
       <c r="P45" t="n">
         <v>354.9097245276476</v>
@@ -34471,16 +34471,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R45" t="n">
-        <v>115.3957935691437</v>
+        <v>115.3957935691438</v>
       </c>
       <c r="S45" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T45" t="n">
-        <v>7.491433617550369</v>
+        <v>7.49143361755037</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1222758479469593</v>
+        <v>0.1222758479469594</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,10 +34520,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H46" t="n">
-        <v>13.85365312018074</v>
+        <v>13.85365312018075</v>
       </c>
       <c r="I46" t="n">
-        <v>46.85877762940479</v>
+        <v>46.8587776294048</v>
       </c>
       <c r="J46" t="n">
         <v>110.1634563554658</v>
@@ -34556,10 +34556,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T46" t="n">
-        <v>6.657686059800556</v>
+        <v>6.657686059800557</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362426</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35421,19 +35421,19 @@
         <v>379.604939301116</v>
       </c>
       <c r="N11" t="n">
-        <v>390.4077565876251</v>
+        <v>390.4077565876252</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1810130290905</v>
+        <v>355.1810130290906</v>
       </c>
       <c r="P11" t="n">
-        <v>268.289281400044</v>
+        <v>268.2892814000441</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.6979329332997</v>
+        <v>267.9815130603167</v>
       </c>
       <c r="R11" t="n">
-        <v>2.619215220750903</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>174.8496780487721</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7457909624329</v>
+        <v>283.8681948007726</v>
       </c>
       <c r="L12" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M12" t="n">
-        <v>328.7910151377041</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="N12" t="n">
         <v>352.0473217437826</v>
@@ -35506,7 +35506,7 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P12" t="n">
-        <v>392.4797538482031</v>
+        <v>220.9353171133174</v>
       </c>
       <c r="Q12" t="n">
         <v>307.3432655597145</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K13" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L13" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M13" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N13" t="n">
         <v>282.5764903465113</v>
@@ -35588,7 +35588,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,19 +35658,19 @@
         <v>379.604939301116</v>
       </c>
       <c r="N14" t="n">
-        <v>390.4077565876251</v>
+        <v>390.4077565876252</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1810130290905</v>
+        <v>355.1810130290906</v>
       </c>
       <c r="P14" t="n">
-        <v>268.289281400044</v>
+        <v>268.2892814000441</v>
       </c>
       <c r="Q14" t="n">
-        <v>267.9815130603176</v>
+        <v>267.9815130603167</v>
       </c>
       <c r="R14" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>174.8496780487721</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K15" t="n">
-        <v>162.2805539498543</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L15" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M15" t="n">
-        <v>328.7910151377041</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N15" t="n">
-        <v>643.2130480342503</v>
+        <v>352.0473217437826</v>
       </c>
       <c r="O15" t="n">
-        <v>643.2130480342503</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9353171133174</v>
+        <v>392.4797538482029</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.26597782386537</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R15" t="n">
-        <v>11.31847095273154</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K16" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L16" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M16" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N16" t="n">
         <v>282.5764903465113</v>
@@ -35825,7 +35825,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>251.4447873811963</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K17" t="n">
-        <v>221.7777047842993</v>
+        <v>336.9444806910959</v>
       </c>
       <c r="L17" t="n">
         <v>312.4093606382718</v>
@@ -35895,19 +35895,19 @@
         <v>379.604939301116</v>
       </c>
       <c r="N17" t="n">
-        <v>390.4077565876251</v>
+        <v>390.4077565876252</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1810130290905</v>
+        <v>355.1810130290906</v>
       </c>
       <c r="P17" t="n">
-        <v>268.289281400044</v>
+        <v>268.2892814000441</v>
       </c>
       <c r="Q17" t="n">
-        <v>365.1297278134252</v>
+        <v>152.8147371535206</v>
       </c>
       <c r="R17" t="n">
-        <v>2.619215220750903</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>174.8496780487721</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K18" t="n">
-        <v>426.7457909624329</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L18" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M18" t="n">
-        <v>328.7910151377041</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N18" t="n">
         <v>352.0473217437826</v>
@@ -35980,13 +35980,13 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P18" t="n">
-        <v>392.4797538482036</v>
+        <v>377.2417944317023</v>
       </c>
       <c r="Q18" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K19" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L19" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M19" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N19" t="n">
         <v>282.5764903465113</v>
@@ -36062,7 +36062,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>282.8765822613213</v>
       </c>
       <c r="K20" t="n">
-        <v>221.7777047842993</v>
+        <v>336.9444806910959</v>
       </c>
       <c r="L20" t="n">
         <v>312.4093606382718</v>
@@ -36132,19 +36132,19 @@
         <v>379.604939301116</v>
       </c>
       <c r="N20" t="n">
-        <v>390.4077565876251</v>
+        <v>390.4077565876252</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1810130290905</v>
+        <v>355.1810130290906</v>
       </c>
       <c r="P20" t="n">
-        <v>268.289281400044</v>
+        <v>268.2892814000441</v>
       </c>
       <c r="Q20" t="n">
-        <v>267.9815130603172</v>
+        <v>152.8147371535206</v>
       </c>
       <c r="R20" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>174.8496780487721</v>
+        <v>48.75864270836334</v>
       </c>
       <c r="K21" t="n">
-        <v>426.7457909624329</v>
+        <v>162.2805539498544</v>
       </c>
       <c r="L21" t="n">
-        <v>436.5411137959599</v>
+        <v>635.837022364533</v>
       </c>
       <c r="M21" t="n">
-        <v>328.7910151377041</v>
+        <v>396.4279386015295</v>
       </c>
       <c r="N21" t="n">
         <v>352.0473217437826</v>
@@ -36217,13 +36217,13 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P21" t="n">
-        <v>220.9353171133174</v>
+        <v>539.3980857532545</v>
       </c>
       <c r="Q21" t="n">
-        <v>307.3432655597145</v>
+        <v>97.2659778238654</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K22" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L22" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M22" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N22" t="n">
         <v>282.5764903465113</v>
@@ -36299,7 +36299,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>730.0705751887223</v>
       </c>
       <c r="M23" t="n">
-        <v>829.1184727939485</v>
+        <v>654.9465271415745</v>
       </c>
       <c r="N23" t="n">
-        <v>827.7546809996093</v>
+        <v>827.7546809996094</v>
       </c>
       <c r="O23" t="n">
-        <v>561.8092486394625</v>
+        <v>735.981194291836</v>
       </c>
       <c r="P23" t="n">
-        <v>590.0879895715267</v>
+        <v>590.0879895715268</v>
       </c>
       <c r="Q23" t="n">
         <v>365.1297278134252</v>
       </c>
       <c r="R23" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>48.75864270836331</v>
+        <v>48.75864270836334</v>
       </c>
       <c r="K24" t="n">
-        <v>162.2805539498543</v>
+        <v>162.2805539498544</v>
       </c>
       <c r="L24" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M24" t="n">
-        <v>621.6266376178735</v>
+        <v>621.6266376178728</v>
       </c>
       <c r="N24" t="n">
-        <v>831.3896960873361</v>
+        <v>831.3896960873362</v>
       </c>
       <c r="O24" t="n">
         <v>299.6102837941356</v>
@@ -36457,7 +36457,7 @@
         <v>220.9353171133174</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.26597782386537</v>
+        <v>97.2659778238654</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K25" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L25" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M25" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N25" t="n">
         <v>282.5764903465113</v>
@@ -36536,7 +36536,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,19 +36606,19 @@
         <v>829.1184727939485</v>
       </c>
       <c r="N26" t="n">
-        <v>827.7546809996093</v>
+        <v>653.5827353472353</v>
       </c>
       <c r="O26" t="n">
-        <v>735.9811942918359</v>
+        <v>735.981194291836</v>
       </c>
       <c r="P26" t="n">
-        <v>590.0879895715267</v>
+        <v>590.0879895715268</v>
       </c>
       <c r="Q26" t="n">
-        <v>190.9577821610519</v>
+        <v>365.1297278134252</v>
       </c>
       <c r="R26" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8496780487721</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K27" t="n">
-        <v>426.7457909624329</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L27" t="n">
-        <v>436.5411137959599</v>
+        <v>436.5411137959597</v>
       </c>
       <c r="M27" t="n">
-        <v>328.7910151377041</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N27" t="n">
         <v>352.0473217437826</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K28" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L28" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M28" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N28" t="n">
         <v>282.5764903465113</v>
@@ -36773,7 +36773,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>113.7799670892475</v>
+        <v>174.4210564819294</v>
       </c>
       <c r="K29" t="n">
         <v>545.923117355464</v>
@@ -36843,19 +36843,19 @@
         <v>829.1184727939485</v>
       </c>
       <c r="N29" t="n">
-        <v>827.7546809996093</v>
+        <v>827.7546809996094</v>
       </c>
       <c r="O29" t="n">
-        <v>735.9811942918359</v>
+        <v>735.981194291836</v>
       </c>
       <c r="P29" t="n">
-        <v>590.0879895715267</v>
+        <v>590.0879895715268</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.0543973331255</v>
+        <v>365.1297278134252</v>
       </c>
       <c r="R29" t="n">
-        <v>68.33563509373334</v>
+        <v>2.619215220750931</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8496780487721</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K30" t="n">
-        <v>426.7457909624329</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L30" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M30" t="n">
-        <v>328.7910151377041</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N30" t="n">
         <v>352.0473217437826</v>
@@ -36928,10 +36928,10 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P30" t="n">
-        <v>539.3980857532545</v>
+        <v>392.4797538482031</v>
       </c>
       <c r="Q30" t="n">
-        <v>160.4249336546631</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K31" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L31" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M31" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N31" t="n">
         <v>282.5764903465113</v>
@@ -37010,7 +37010,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,19 +37080,19 @@
         <v>829.1184727939485</v>
       </c>
       <c r="N32" t="n">
-        <v>653.5827353472357</v>
+        <v>827.7546809996094</v>
       </c>
       <c r="O32" t="n">
-        <v>735.9811942918359</v>
+        <v>735.981194291836</v>
       </c>
       <c r="P32" t="n">
-        <v>590.0879895715267</v>
+        <v>590.0879895715268</v>
       </c>
       <c r="Q32" t="n">
-        <v>365.1297278134252</v>
+        <v>190.9577821610509</v>
       </c>
       <c r="R32" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8496780487721</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K33" t="n">
-        <v>426.7457909624329</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L33" t="n">
-        <v>436.5411137959599</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M33" t="n">
-        <v>328.7910151377041</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N33" t="n">
         <v>352.0473217437826</v>
@@ -37165,7 +37165,7 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P33" t="n">
-        <v>220.9353171133174</v>
+        <v>392.4797538482031</v>
       </c>
       <c r="Q33" t="n">
         <v>307.3432655597145</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K34" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L34" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M34" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N34" t="n">
         <v>282.5764903465113</v>
@@ -37247,7 +37247,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.7799670892475</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K35" t="n">
         <v>221.7777047842993</v>
@@ -37314,22 +37314,22 @@
         <v>312.4093606382718</v>
       </c>
       <c r="M35" t="n">
-        <v>643.2130480342504</v>
+        <v>379.604939301116</v>
       </c>
       <c r="N35" t="n">
-        <v>411.0630389333623</v>
+        <v>390.4077565876252</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1810130290905</v>
+        <v>355.1810130290906</v>
       </c>
       <c r="P35" t="n">
-        <v>268.289281400044</v>
+        <v>383.4560573068405</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.8147371535205</v>
+        <v>152.8147371535206</v>
       </c>
       <c r="R35" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>48.75864270836331</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K36" t="n">
-        <v>426.7457909624329</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L36" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M36" t="n">
-        <v>328.7910151377041</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N36" t="n">
         <v>352.0473217437826</v>
@@ -37402,10 +37402,10 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P36" t="n">
-        <v>539.3980857532545</v>
+        <v>392.4797538482029</v>
       </c>
       <c r="Q36" t="n">
-        <v>286.5159689950718</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K37" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L37" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M37" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N37" t="n">
         <v>282.5764903465113</v>
@@ -37484,7 +37484,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.7799670892475</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K38" t="n">
         <v>221.7777047842993</v>
@@ -37551,22 +37551,22 @@
         <v>312.4093606382718</v>
       </c>
       <c r="M38" t="n">
-        <v>643.2130480342502</v>
+        <v>379.604939301116</v>
       </c>
       <c r="N38" t="n">
-        <v>476.7794588063441</v>
+        <v>390.4077565876252</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1810130290905</v>
+        <v>355.1810130290906</v>
       </c>
       <c r="P38" t="n">
-        <v>268.289281400044</v>
+        <v>268.2892814000441</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.8147371535205</v>
+        <v>267.9815130603167</v>
       </c>
       <c r="R38" t="n">
-        <v>2.619215220750903</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8496780487721</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K39" t="n">
-        <v>426.7457909624329</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L39" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610739</v>
       </c>
       <c r="M39" t="n">
-        <v>328.7910151377041</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N39" t="n">
         <v>352.0473217437826</v>
@@ -37639,13 +37639,13 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P39" t="n">
-        <v>377.2417944317025</v>
+        <v>377.2417944317023</v>
       </c>
       <c r="Q39" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R39" t="n">
-        <v>15.23795941650062</v>
+        <v>15.23795941650063</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K40" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L40" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M40" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N40" t="n">
         <v>282.5764903465113</v>
@@ -37721,7 +37721,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>113.7799670892475</v>
+        <v>251.4447873811956</v>
       </c>
       <c r="K41" t="n">
         <v>221.7777047842993</v>
@@ -37791,19 +37791,19 @@
         <v>379.604939301116</v>
       </c>
       <c r="N41" t="n">
-        <v>390.4077565876251</v>
+        <v>390.4077565876252</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1810130290905</v>
+        <v>355.1810130290906</v>
       </c>
       <c r="P41" t="n">
-        <v>340.2376818190098</v>
+        <v>268.2892814000441</v>
       </c>
       <c r="Q41" t="n">
         <v>365.1297278134252</v>
       </c>
       <c r="R41" t="n">
-        <v>68.33563509373334</v>
+        <v>2.619215220750931</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8496780487721</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K42" t="n">
-        <v>426.7457909624329</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L42" t="n">
-        <v>436.5411137959599</v>
+        <v>355.4526752413413</v>
       </c>
       <c r="M42" t="n">
-        <v>328.7910151377041</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N42" t="n">
-        <v>352.0473217437826</v>
+        <v>643.2130480342502</v>
       </c>
       <c r="O42" t="n">
         <v>299.6102837941356</v>
@@ -37879,7 +37879,7 @@
         <v>220.9353171133174</v>
       </c>
       <c r="Q42" t="n">
-        <v>307.3432655597145</v>
+        <v>97.2659778238654</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K43" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L43" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M43" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N43" t="n">
         <v>282.5764903465113</v>
@@ -37958,7 +37958,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>312.4093606382718</v>
       </c>
       <c r="M44" t="n">
-        <v>494.7717152079134</v>
+        <v>379.604939301116</v>
       </c>
       <c r="N44" t="n">
-        <v>390.4077565876251</v>
+        <v>390.4077565876252</v>
       </c>
       <c r="O44" t="n">
-        <v>355.1810130290905</v>
+        <v>355.1810130290906</v>
       </c>
       <c r="P44" t="n">
-        <v>268.289281400044</v>
+        <v>268.2892814000441</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.8147371535205</v>
+        <v>267.9815130603167</v>
       </c>
       <c r="R44" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373337</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>48.75864270836331</v>
+        <v>174.8496780487722</v>
       </c>
       <c r="K45" t="n">
-        <v>426.7457909624329</v>
+        <v>426.745790962433</v>
       </c>
       <c r="L45" t="n">
-        <v>264.9966770610738</v>
+        <v>436.5411137959596</v>
       </c>
       <c r="M45" t="n">
-        <v>328.7910151377041</v>
+        <v>328.7910151377042</v>
       </c>
       <c r="N45" t="n">
         <v>352.0473217437826</v>
@@ -38113,10 +38113,10 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P45" t="n">
-        <v>539.3980857532545</v>
+        <v>220.9353171133174</v>
       </c>
       <c r="Q45" t="n">
-        <v>286.5159689950723</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879307</v>
       </c>
       <c r="K46" t="n">
-        <v>158.7629078427365</v>
+        <v>158.7629078427366</v>
       </c>
       <c r="L46" t="n">
-        <v>259.2491695623977</v>
+        <v>259.2491695623978</v>
       </c>
       <c r="M46" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195875</v>
       </c>
       <c r="N46" t="n">
         <v>282.5764903465113</v>
@@ -38195,7 +38195,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.31443823090761</v>
+        <v>44.31443823090764</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
